--- a/fiestas_data.xlsx
+++ b/fiestas_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\Desktop\Actividad Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aero\Desktop\proj_pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D28A14-BFFF-443A-871E-E9962D342D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6265C032-9DA6-4A6F-9950-68157806A6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fiestas" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -802,7 +794,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1100,37 +1092,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" customWidth="1"/>
-    <col min="11" max="11" width="20.54296875" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7265625" customWidth="1"/>
-    <col min="14" max="14" width="17.7265625" customWidth="1"/>
-    <col min="15" max="15" width="19.54296875" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.26953125" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1172,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>57</v>
       </c>
@@ -1230,7 +1222,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>58</v>
       </c>
@@ -1280,7 +1272,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -1330,7 +1322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>31</v>
       </c>
@@ -1380,7 +1372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>46</v>
       </c>
@@ -1430,7 +1422,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>59</v>
       </c>
@@ -1480,7 +1472,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>60</v>
       </c>
@@ -1530,7 +1522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>61</v>
       </c>
@@ -1580,7 +1572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>70</v>
       </c>
@@ -1630,7 +1622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>71</v>
       </c>
@@ -1680,7 +1672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>6</v>
       </c>
@@ -1730,7 +1722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>32</v>
       </c>
@@ -1780,7 +1772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>47</v>
       </c>
@@ -1830,7 +1822,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>72</v>
       </c>
@@ -1880,7 +1872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>73</v>
       </c>
@@ -1930,7 +1922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>74</v>
       </c>
@@ -1980,7 +1972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>75</v>
       </c>
@@ -2030,7 +2022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>80</v>
       </c>
@@ -2080,7 +2072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>81</v>
       </c>
@@ -2130,7 +2122,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>82</v>
       </c>
@@ -2180,7 +2172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>83</v>
       </c>
@@ -2230,7 +2222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -2280,7 +2272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>30</v>
       </c>
@@ -2330,7 +2322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45</v>
       </c>
@@ -2380,7 +2372,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>84</v>
       </c>
@@ -2430,7 +2422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>7</v>
       </c>
@@ -2480,7 +2472,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>33</v>
       </c>
@@ -2530,7 +2522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>48</v>
       </c>
@@ -2580,7 +2572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>85</v>
       </c>
@@ -2630,7 +2622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>86</v>
       </c>
@@ -2680,7 +2672,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>87</v>
       </c>
@@ -2730,7 +2722,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>88</v>
       </c>
@@ -2780,7 +2772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>89</v>
       </c>
@@ -2830,7 +2822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>90</v>
       </c>
@@ -2880,7 +2872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>91</v>
       </c>
@@ -2930,7 +2922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>92</v>
       </c>
@@ -2980,7 +2972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>93</v>
       </c>
@@ -3030,7 +3022,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>8</v>
       </c>
@@ -3080,7 +3072,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>34</v>
       </c>
@@ -3130,7 +3122,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>49</v>
       </c>
@@ -3180,7 +3172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>94</v>
       </c>
@@ -3230,7 +3222,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>95</v>
       </c>
@@ -3280,7 +3272,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>96</v>
       </c>
@@ -3330,7 +3322,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>97</v>
       </c>
@@ -3380,7 +3372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>98</v>
       </c>
@@ -3430,7 +3422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>99</v>
       </c>
@@ -3480,7 +3472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>100</v>
       </c>
@@ -3530,7 +3522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>101</v>
       </c>
@@ -3580,7 +3572,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>9</v>
       </c>
@@ -3630,7 +3622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -3680,7 +3672,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -3730,7 +3722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>102</v>
       </c>
@@ -3780,7 +3772,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>103</v>
       </c>
@@ -3830,7 +3822,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>104</v>
       </c>
@@ -3880,7 +3872,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>110</v>
       </c>
@@ -3930,7 +3922,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -3980,7 +3972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>29</v>
       </c>
@@ -4030,7 +4022,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>44</v>
       </c>
@@ -4080,7 +4072,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>111</v>
       </c>
@@ -4130,7 +4122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>112</v>
       </c>
@@ -4180,7 +4172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>113</v>
       </c>
@@ -4230,7 +4222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>114</v>
       </c>
@@ -4280,7 +4272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>115</v>
       </c>
@@ -4330,7 +4322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>10</v>
       </c>
@@ -4380,7 +4372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>36</v>
       </c>
@@ -4430,7 +4422,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -4480,7 +4472,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>120</v>
       </c>
@@ -4530,7 +4522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>121</v>
       </c>
@@ -4580,7 +4572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>122</v>
       </c>
@@ -4630,7 +4622,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>145</v>
       </c>
@@ -4680,7 +4672,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>150</v>
       </c>
@@ -4730,7 +4722,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>155</v>
       </c>
@@ -4780,7 +4772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>160</v>
       </c>
@@ -4830,7 +4822,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>165</v>
       </c>
@@ -4880,7 +4872,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>169</v>
       </c>
@@ -4930,7 +4922,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>11</v>
       </c>
@@ -4980,7 +4972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>37</v>
       </c>
@@ -5030,7 +5022,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>52</v>
       </c>
@@ -5080,7 +5072,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>170</v>
       </c>
@@ -5130,7 +5122,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>171</v>
       </c>
@@ -5180,7 +5172,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>190</v>
       </c>
@@ -5230,7 +5222,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>200</v>
       </c>
@@ -5280,7 +5272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>210</v>
       </c>
@@ -5330,7 +5322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>215</v>
       </c>
@@ -5380,7 +5372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>220</v>
       </c>
@@ -5430,7 +5422,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>221</v>
       </c>
@@ -5480,7 +5472,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>225</v>
       </c>
@@ -5530,7 +5522,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>12</v>
       </c>
@@ -5580,7 +5572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>39</v>
       </c>
@@ -5630,7 +5622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>53</v>
       </c>
@@ -5680,7 +5672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>229</v>
       </c>
@@ -5730,7 +5722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>230</v>
       </c>
@@ -5780,7 +5772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>1</v>
       </c>
@@ -5830,7 +5822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>235</v>
       </c>
@@ -5880,7 +5872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>244</v>
       </c>
@@ -5930,7 +5922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>270</v>
       </c>
@@ -5980,7 +5972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>275</v>
       </c>
@@ -6030,7 +6022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>333</v>
       </c>
@@ -6080,7 +6072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>444</v>
       </c>
@@ -6130,7 +6122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>13</v>
       </c>
@@ -6180,7 +6172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>40</v>
       </c>
@@ -6230,7 +6222,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>54</v>
       </c>
@@ -6280,7 +6272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>500</v>
       </c>
@@ -6330,7 +6322,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>540</v>
       </c>
@@ -6380,7 +6372,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="106" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>560</v>
       </c>
@@ -6430,7 +6422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>590</v>
       </c>
@@ -6480,7 +6472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>600</v>
       </c>
@@ -6530,7 +6522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>2100</v>
       </c>
@@ -6580,7 +6572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>2900</v>
       </c>
@@ -6630,7 +6622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>3000</v>
       </c>
@@ -6680,7 +6672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>4000</v>
       </c>
@@ -6730,7 +6722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>14</v>
       </c>
@@ -6780,7 +6772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>42</v>
       </c>
@@ -6830,7 +6822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>55</v>
       </c>
@@ -6880,7 +6872,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>5001</v>
       </c>
@@ -6930,7 +6922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>5002</v>
       </c>
@@ -6980,7 +6972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>5006</v>
       </c>
@@ -7030,7 +7022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>5009</v>
       </c>
@@ -7080,7 +7072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>5020</v>
       </c>
@@ -7130,7 +7122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>5550</v>
       </c>
@@ -7180,7 +7172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>6001</v>
       </c>
@@ -7230,7 +7222,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>6010</v>
       </c>
@@ -7280,7 +7272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>6020</v>
       </c>
@@ -7330,7 +7322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>15</v>
       </c>
@@ -7380,7 +7372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>43</v>
       </c>
@@ -7430,7 +7422,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="127" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>56</v>
       </c>
@@ -7480,7 +7472,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>6030</v>
       </c>
@@ -7530,7 +7522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>6666</v>
       </c>
@@ -7580,7 +7572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>7001</v>
       </c>
@@ -7630,7 +7622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>7008</v>
       </c>
@@ -7680,7 +7672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>7010</v>
       </c>
@@ -7730,7 +7722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>7060</v>
       </c>
@@ -7780,7 +7772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>7089</v>
       </c>
@@ -7830,7 +7822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>2</v>
       </c>
@@ -7880,7 +7872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>8001</v>
       </c>
@@ -7930,7 +7922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>8012</v>
       </c>
@@ -7980,7 +7972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>16</v>
       </c>
@@ -8030,7 +8022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>8090</v>
       </c>
@@ -8080,7 +8072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>10999</v>
       </c>
@@ -8130,7 +8122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>11155</v>
       </c>
@@ -8180,7 +8172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>21000</v>
       </c>
@@ -8230,7 +8222,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="143" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>22220</v>
       </c>
@@ -8280,7 +8272,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="144" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>50000</v>
       </c>
@@ -8330,7 +8322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>60000</v>
       </c>
@@ -8380,7 +8372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>65000</v>
       </c>
@@ -8430,7 +8422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="147" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>18</v>
       </c>
@@ -8480,7 +8472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>67000</v>
       </c>
@@ -8530,7 +8522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>90999</v>
       </c>
@@ -8580,7 +8572,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>100000</v>
       </c>
@@ -8630,7 +8622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>111000</v>
       </c>
@@ -8680,7 +8672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="152" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>111287</v>
       </c>
@@ -8730,7 +8722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="153" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>200000</v>
       </c>
@@ -8780,7 +8772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>213213</v>
       </c>
@@ -8830,7 +8822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>300000</v>
       </c>
@@ -8880,7 +8872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>345678</v>
       </c>
@@ -8930,7 +8922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>19</v>
       </c>
@@ -8980,7 +8972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>400000</v>
       </c>
@@ -9030,7 +9022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>400001</v>
       </c>
@@ -9080,7 +9072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>500000</v>
       </c>
@@ -9130,7 +9122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>600000</v>
       </c>
@@ -9180,7 +9172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>689799</v>
       </c>
@@ -9230,7 +9222,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>20</v>
       </c>
@@ -9280,7 +9272,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="164" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>21</v>
       </c>
@@ -9330,7 +9322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>22</v>
       </c>
@@ -9380,7 +9372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>23</v>
       </c>
@@ -9430,7 +9422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>24</v>
       </c>
@@ -9480,7 +9472,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="168" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>25</v>
       </c>
@@ -9530,7 +9522,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="169" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>26</v>
       </c>
@@ -9580,7 +9572,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="170" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>27</v>
       </c>

--- a/fiestas_data.xlsx
+++ b/fiestas_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aero\Desktop\proj_pandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\Desktop\proj_pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6265C032-9DA6-4A6F-9950-68157806A6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C98934-94BC-47F8-BC9D-D7F07CB54995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fiestas" sheetId="1" r:id="rId1"/>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1092,37 +1092,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" customWidth="1"/>
+    <col min="11" max="11" width="20.54296875" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7265625" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" customWidth="1"/>
+    <col min="15" max="15" width="19.54296875" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.26953125" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>57</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>58</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>31</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>46</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>59</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>60</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>61</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>70</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>71</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>6</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>32</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>47</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>72</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>73</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>74</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>75</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>80</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>81</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>82</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>83</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>30</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>45</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>84</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>7</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>33</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>48</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>85</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>86</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>87</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>88</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>89</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>90</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>91</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>92</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>93</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>8</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>34</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>49</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>94</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>95</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>96</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>97</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>98</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>99</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>100</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>101</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>9</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>102</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>103</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>104</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>110</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>29</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>44</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>111</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>112</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>113</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>114</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>115</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>10</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>36</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>120</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>121</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>122</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>145</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>150</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>155</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>160</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>165</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>169</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>11</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>37</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>52</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>170</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>171</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>190</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>200</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>210</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>215</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>220</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>221</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>225</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>12</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>39</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>53</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>229</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>230</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>1</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>235</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>244</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>270</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>275</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>333</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>444</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>13</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>40</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>54</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>500</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>540</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="106" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>560</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>590</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>600</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>2100</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>2900</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>3000</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>4000</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>14</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>42</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>55</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>5001</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>5002</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>5006</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>5009</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>5020</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>5550</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>6001</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>6010</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>6020</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>15</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>43</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="127" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>56</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>6030</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>6666</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>7001</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>7008</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>7010</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>7060</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>7089</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>2</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>8001</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>8012</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>16</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>8090</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>10999</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>11155</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>21000</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="143" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <v>22220</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="144" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>50000</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <v>60000</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>65000</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="147" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <v>18</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>67000</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <v>90999</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>100000</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
         <v>111000</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="152" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
         <v>111287</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="153" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <v>200000</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
         <v>213213</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
         <v>300000</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
         <v>345678</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
         <v>19</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
         <v>400000</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
         <v>400001</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
         <v>500000</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
         <v>600000</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
         <v>689799</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
         <v>20</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="164" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
         <v>21</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
         <v>22</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
         <v>23</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
         <v>24</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="168" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
         <v>25</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="169" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
         <v>26</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="170" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="9">
         <v>27</v>
       </c>
